--- a/Hoàng/2025/BIDV QUẢNG NAM/DS, DM BIDV CN QUẢNG NAM 2025.xlsx
+++ b/Hoàng/2025/BIDV QUẢNG NAM/DS, DM BIDV CN QUẢNG NAM 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\2025\BIDV QUẢNG NAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BE5E34-9598-4E56-A40C-8336D2E8FDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C23E31E-5E10-4CD6-A9FD-EE53336858BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DS" sheetId="1" r:id="rId1"/>
@@ -1152,21 +1152,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1450,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G82" sqref="A1:G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1468,42 +1468,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="25"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1527,8 +1527,8 @@
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -1552,8 +1552,8 @@
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="93" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1606,8 +1606,8 @@
       <c r="G6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -1631,8 +1631,8 @@
       <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -1656,8 +1656,8 @@
       <c r="G8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -1681,8 +1681,8 @@
       <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -1709,7 +1709,7 @@
       <c r="H10" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -1733,8 +1733,8 @@
       <c r="G11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -1758,8 +1758,8 @@
       <c r="G12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -1783,8 +1783,8 @@
       <c r="G13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -1811,7 +1811,7 @@
       <c r="H14" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -1835,8 +1835,8 @@
       <c r="G15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -1860,8 +1860,8 @@
       <c r="G16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -1885,10 +1885,10 @@
       <c r="G17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="I17" s="28"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -1912,8 +1912,8 @@
       <c r="G18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
@@ -1937,8 +1937,8 @@
       <c r="G19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
@@ -1962,8 +1962,8 @@
       <c r="G20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -1987,8 +1987,8 @@
       <c r="G21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
@@ -2015,7 +2015,7 @@
       <c r="H22" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="I22" s="28"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
@@ -2039,8 +2039,8 @@
       <c r="G23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
@@ -2064,8 +2064,8 @@
       <c r="G24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
@@ -2089,8 +2089,8 @@
       <c r="G25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
@@ -2114,8 +2114,8 @@
       <c r="G26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
@@ -2139,8 +2139,8 @@
       <c r="G27" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
@@ -2164,8 +2164,8 @@
       <c r="G28" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
@@ -2189,8 +2189,8 @@
       <c r="G29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
@@ -2214,8 +2214,8 @@
       <c r="G30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
@@ -2239,8 +2239,8 @@
       <c r="G31" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
@@ -2264,8 +2264,8 @@
       <c r="G32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
@@ -2289,8 +2289,8 @@
       <c r="G33" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
@@ -2314,8 +2314,8 @@
       <c r="G34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
@@ -2339,8 +2339,8 @@
       <c r="G35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
@@ -2364,8 +2364,8 @@
       <c r="G36" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
@@ -2389,8 +2389,8 @@
       <c r="G37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
@@ -2414,8 +2414,8 @@
       <c r="G38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
@@ -2439,8 +2439,8 @@
       <c r="G39" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
@@ -2464,8 +2464,8 @@
       <c r="G40" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
@@ -2489,8 +2489,8 @@
       <c r="G41" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
@@ -2514,8 +2514,8 @@
       <c r="G42" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
@@ -2539,8 +2539,8 @@
       <c r="G43" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
@@ -2564,8 +2564,8 @@
       <c r="G44" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
     </row>
     <row r="45" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
@@ -2589,8 +2589,8 @@
       <c r="G45" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
     </row>
     <row r="46" spans="1:9" ht="31" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
@@ -2614,8 +2614,8 @@
       <c r="G46" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
@@ -2639,8 +2639,8 @@
       <c r="G47" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
     </row>
     <row r="48" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
@@ -2664,10 +2664,10 @@
       <c r="G48" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="H48" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="I48" s="28"/>
+      <c r="I48" s="24"/>
     </row>
     <row r="49" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
@@ -2691,8 +2691,8 @@
       <c r="G49" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
     </row>
     <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
@@ -2716,8 +2716,8 @@
       <c r="G50" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
     </row>
     <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -2741,8 +2741,8 @@
       <c r="G51" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
     </row>
     <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
@@ -2766,8 +2766,8 @@
       <c r="G52" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
     </row>
     <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
@@ -2791,8 +2791,8 @@
       <c r="G53" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
     </row>
     <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
@@ -2816,8 +2816,8 @@
       <c r="G54" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
     </row>
     <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
@@ -2841,8 +2841,8 @@
       <c r="G55" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
     </row>
     <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
@@ -2866,8 +2866,8 @@
       <c r="G56" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
     </row>
     <row r="57" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
@@ -2891,8 +2891,8 @@
       <c r="G57" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
     </row>
     <row r="58" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
@@ -2916,8 +2916,8 @@
       <c r="G58" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
     </row>
     <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
@@ -2941,8 +2941,8 @@
       <c r="G59" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
     </row>
     <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
@@ -2966,8 +2966,8 @@
       <c r="G60" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
     </row>
     <row r="61" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
@@ -2991,8 +2991,8 @@
       <c r="G61" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
     </row>
     <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
@@ -3016,8 +3016,8 @@
       <c r="G62" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
     </row>
     <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
@@ -3041,8 +3041,8 @@
       <c r="G63" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
     </row>
     <row r="64" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
@@ -3066,8 +3066,8 @@
       <c r="G64" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
     </row>
     <row r="65" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
@@ -3091,8 +3091,8 @@
       <c r="G65" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
     </row>
     <row r="66" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
@@ -3116,8 +3116,8 @@
       <c r="G66" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
     </row>
     <row r="67" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
@@ -3141,8 +3141,8 @@
       <c r="G67" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
     </row>
     <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
@@ -3166,8 +3166,8 @@
       <c r="G68" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
     </row>
     <row r="69" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
@@ -3191,8 +3191,8 @@
       <c r="G69" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
     </row>
     <row r="70" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
@@ -3216,8 +3216,8 @@
       <c r="G70" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
     </row>
     <row r="71" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
@@ -3241,8 +3241,8 @@
       <c r="G71" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
     </row>
     <row r="72" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
@@ -3266,8 +3266,8 @@
       <c r="G72" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
     </row>
     <row r="73" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
@@ -3289,8 +3289,8 @@
         <v>170</v>
       </c>
       <c r="G73" s="7"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
     </row>
     <row r="74" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
@@ -3312,8 +3312,8 @@
         <v>170</v>
       </c>
       <c r="G74" s="7"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
     </row>
     <row r="75" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
@@ -3335,8 +3335,8 @@
         <v>170</v>
       </c>
       <c r="G75" s="7"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
     </row>
     <row r="76" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
@@ -3358,8 +3358,8 @@
         <v>170</v>
       </c>
       <c r="G76" s="7"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
     </row>
     <row r="77" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
@@ -3381,8 +3381,8 @@
         <v>170</v>
       </c>
       <c r="G77" s="7"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
     </row>
     <row r="78" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
@@ -3404,8 +3404,8 @@
         <v>170</v>
       </c>
       <c r="G78" s="7"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
     </row>
     <row r="79" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
@@ -3427,8 +3427,8 @@
         <v>170</v>
       </c>
       <c r="G79" s="7"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
     </row>
     <row r="80" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
@@ -3450,8 +3450,8 @@
         <v>170</v>
       </c>
       <c r="G80" s="7"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
     </row>
     <row r="81" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
@@ -3473,8 +3473,8 @@
         <v>170</v>
       </c>
       <c r="G81" s="7"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
     </row>
     <row r="82" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
@@ -3496,8 +3496,8 @@
         <v>170</v>
       </c>
       <c r="G82" s="7"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3519,8 +3519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A6689F-F9AD-450E-A011-3F3B0258FA00}">
   <dimension ref="A1:DJ113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Hoàng/2025/BIDV QUẢNG NAM/DS, DM BIDV CN QUẢNG NAM 2025.xlsx
+++ b/Hoàng/2025/BIDV QUẢNG NAM/DS, DM BIDV CN QUẢNG NAM 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\2025\BIDV QUẢNG NAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C23E31E-5E10-4CD6-A9FD-EE53336858BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1957F3-E5ED-4C85-9C5F-E6378E3B9AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DS" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="303">
   <si>
     <t>STT</t>
   </si>
@@ -944,24 +944,6 @@
   </si>
   <si>
     <t>Danh mục</t>
-  </si>
-  <si>
-    <t>bỏ nội soi- tư vấn cổ chân nếu ko bị chấn thương thì tư vấn làm xét về gút và chụp xquang cổ chân</t>
-  </si>
-  <si>
-    <t>không lấy máu ngày 9/5</t>
-  </si>
-  <si>
-    <t>khám ngày 10</t>
-  </si>
-  <si>
-    <t>đt lại để ? Ngày khám</t>
-  </si>
-  <si>
-    <t>ko bắt máy</t>
-  </si>
-  <si>
-    <t>ko bắt máy, ĐIỀU CHỈNH HDL THÀNH LDL</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1152,18 +1134,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1448,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G82" sqref="A1:G82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1463,49 +1441,41 @@
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1527,10 +1497,8 @@
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1552,10 +1520,8 @@
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:9" ht="93" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1577,14 +1543,8 @@
       <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1606,10 +1566,8 @@
       <c r="G6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1631,10 +1589,8 @@
       <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1656,10 +1612,8 @@
       <c r="G8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1681,10 +1635,8 @@
       <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1706,12 +1658,8 @@
       <c r="G10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1733,10 +1681,8 @@
       <c r="G11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1758,10 +1704,8 @@
       <c r="G12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1783,10 +1727,8 @@
       <c r="G13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1808,12 +1750,8 @@
       <c r="G14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1835,10 +1773,8 @@
       <c r="G15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1860,10 +1796,8 @@
       <c r="G16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1885,12 +1819,8 @@
       <c r="G17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1912,10 +1842,8 @@
       <c r="G18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1937,10 +1865,8 @@
       <c r="G19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1962,10 +1888,8 @@
       <c r="G20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1987,10 +1911,8 @@
       <c r="G21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2012,12 +1934,8 @@
       <c r="G22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2039,10 +1957,8 @@
       <c r="G23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2064,10 +1980,8 @@
       <c r="G24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2089,10 +2003,8 @@
       <c r="G25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2114,10 +2026,8 @@
       <c r="G26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2139,10 +2049,8 @@
       <c r="G27" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2164,10 +2072,8 @@
       <c r="G28" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-    </row>
-    <row r="29" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2189,10 +2095,8 @@
       <c r="G29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2214,10 +2118,8 @@
       <c r="G30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2239,10 +2141,8 @@
       <c r="G31" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2264,10 +2164,8 @@
       <c r="G32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2289,10 +2187,8 @@
       <c r="G33" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-    </row>
-    <row r="34" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2314,10 +2210,8 @@
       <c r="G34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2339,10 +2233,8 @@
       <c r="G35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2364,10 +2256,8 @@
       <c r="G36" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2389,10 +2279,8 @@
       <c r="G37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2414,10 +2302,8 @@
       <c r="G38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2439,10 +2325,8 @@
       <c r="G39" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-    </row>
-    <row r="40" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2464,10 +2348,8 @@
       <c r="G40" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2489,10 +2371,8 @@
       <c r="G41" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2514,10 +2394,8 @@
       <c r="G42" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2539,10 +2417,8 @@
       <c r="G43" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2564,10 +2440,8 @@
       <c r="G44" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2589,10 +2463,8 @@
       <c r="G45" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-    </row>
-    <row r="46" spans="1:9" ht="31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" ht="31" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2614,10 +2486,8 @@
       <c r="G46" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2639,10 +2509,8 @@
       <c r="G47" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-    </row>
-    <row r="48" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2664,12 +2532,8 @@
       <c r="G48" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H48" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="I48" s="24"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2691,10 +2555,8 @@
       <c r="G49" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2716,10 +2578,8 @@
       <c r="G50" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2741,10 +2601,8 @@
       <c r="G51" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2766,10 +2624,8 @@
       <c r="G52" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2791,10 +2647,8 @@
       <c r="G53" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2816,10 +2670,8 @@
       <c r="G54" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2841,10 +2693,8 @@
       <c r="G55" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2866,10 +2716,8 @@
       <c r="G56" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-    </row>
-    <row r="57" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2891,10 +2739,8 @@
       <c r="G57" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2916,10 +2762,8 @@
       <c r="G58" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2941,10 +2785,8 @@
       <c r="G59" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2966,10 +2808,8 @@
       <c r="G60" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2991,10 +2831,8 @@
       <c r="G61" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-    </row>
-    <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3016,10 +2854,8 @@
       <c r="G62" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-    </row>
-    <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3041,10 +2877,8 @@
       <c r="G63" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-    </row>
-    <row r="64" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3066,10 +2900,8 @@
       <c r="G64" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-    </row>
-    <row r="65" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3091,10 +2923,8 @@
       <c r="G65" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-    </row>
-    <row r="66" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3116,10 +2946,8 @@
       <c r="G66" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-    </row>
-    <row r="67" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3141,10 +2969,8 @@
       <c r="G67" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-    </row>
-    <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3166,10 +2992,8 @@
       <c r="G68" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-    </row>
-    <row r="69" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3191,10 +3015,8 @@
       <c r="G69" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3216,10 +3038,8 @@
       <c r="G70" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-    </row>
-    <row r="71" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3241,10 +3061,8 @@
       <c r="G71" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-    </row>
-    <row r="72" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3266,10 +3084,8 @@
       <c r="G72" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3289,10 +3105,8 @@
         <v>170</v>
       </c>
       <c r="G73" s="7"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3312,10 +3126,8 @@
         <v>170</v>
       </c>
       <c r="G74" s="7"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3335,10 +3147,8 @@
         <v>170</v>
       </c>
       <c r="G75" s="7"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3358,10 +3168,8 @@
         <v>170</v>
       </c>
       <c r="G76" s="7"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-    </row>
-    <row r="77" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3381,10 +3189,8 @@
         <v>170</v>
       </c>
       <c r="G77" s="7"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-    </row>
-    <row r="78" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3404,10 +3210,8 @@
         <v>170</v>
       </c>
       <c r="G78" s="7"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3427,10 +3231,8 @@
         <v>170</v>
       </c>
       <c r="G79" s="7"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-    </row>
-    <row r="80" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3450,10 +3252,8 @@
         <v>170</v>
       </c>
       <c r="G80" s="7"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-    </row>
-    <row r="81" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3473,10 +3273,8 @@
         <v>170</v>
       </c>
       <c r="G81" s="7"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-    </row>
-    <row r="82" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3496,12 +3294,9 @@
         <v>170</v>
       </c>
       <c r="G82" s="7"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H1:I2"/>
+  <mergeCells count="7">
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
@@ -3519,7 +3314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A6689F-F9AD-450E-A011-3F3B0258FA00}">
   <dimension ref="A1:DJ113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
